--- a/src/test/resources/excel/TestDataSheet.xlsx
+++ b/src/test/resources/excel/TestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optisolbusinessindia-my.sharepoint.com/personal/hemanthkumar_b_optisolbusiness_com/Documents/AutomationWorkplace/folloAutomation/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3995EB9-69F3-431B-8558-50296ECB94B6}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127A1E89-17F0-45D2-8781-42FAAE1E600E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>3GB</t>
   </si>
   <si>
-    <t>hein123@yopmail.com</t>
-  </si>
-  <si>
     <t>Company 1</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>TOTIMEHH</t>
+  </si>
+  <si>
+    <t>hemanthpa123@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -803,7 +803,7 @@
     <col min="30" max="30" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.8">
+    <row r="1" spans="1:30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -814,34 +814,34 @@
         <v>11</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="G1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="J1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="9"/>
@@ -866,34 +866,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="8">
         <v>3</v>
       </c>
       <c r="I2" s="8">
-        <v>860</v>
+        <v>996</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="8">
         <v>9</v>
@@ -923,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -961,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -997,10 +997,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{73CA23CC-3B8F-4810-8E7F-E447CA088110}"/>
-    <hyperlink ref="B3:B4" r:id="rId2" display="hein123@yopmail.com" xr:uid="{C039F7DA-0E64-41BB-8795-EDD1BC0A7660}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C6002A08-A006-489E-AACC-4CF0E1E99BF2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{169B8113-2692-4F81-852E-18527256489F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/excel/TestDataSheet.xlsx
+++ b/src/test/resources/excel/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optisolbusinessindia-my.sharepoint.com/personal/hemanthkumar_b_optisolbusiness_com/Documents/AutomationWorkplace/folloAutomation/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127A1E89-17F0-45D2-8781-42FAAE1E600E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7653E9-B0B2-40D4-B706-3F7B27BAB96A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseManager" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>TESTCASENAME</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Currency</t>
-  </si>
-  <si>
-    <t>deva@yopmail.com</t>
   </si>
   <si>
     <t>Tabel1</t>
@@ -772,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -814,34 +811,34 @@
         <v>11</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="G1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="J1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="L1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="9"/>
@@ -866,22 +863,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="8">
         <v>3</v>
@@ -890,10 +887,10 @@
         <v>996</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="8">
         <v>9</v>
@@ -923,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -961,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1009,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1115,28 +1112,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G2" s="5">
         <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
@@ -1148,40 +1145,40 @@
         <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
       </c>
       <c r="S2" s="5">
         <v>12</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U2" s="5">
         <v>10</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>16</v>
@@ -1192,16 +1189,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1220,19 +1217,19 @@
         <v>12</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U3" s="5">
         <v>10</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>16</v>
@@ -1243,16 +1240,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1271,19 +1268,19 @@
         <v>13</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" s="5">
         <v>11</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>16</v>
@@ -1294,6 +1291,9 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" tooltip="mailto:Test@123" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{C9D49011-8BBC-4CF0-ADA5-0B4E077239B8}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{09FC86E0-C135-4C8C-8971-EEE4ED7A320B}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{0DBF312D-07B1-4055-93E4-3461F4A2773D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/TestDataSheet.xlsx
+++ b/src/test/resources/excel/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optisolbusinessindia-my.sharepoint.com/personal/hemanthkumar_b_optisolbusiness_com/Documents/AutomationWorkplace/folloAutomation/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7653E9-B0B2-40D4-B706-3F7B27BAB96A}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB65C34-BD7A-4EFA-84DE-BA96E194C7E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseManager" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>TESTCASENAME</t>
   </si>
@@ -60,141 +60,12 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>TabName</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
-    <t>MaxLength</t>
-  </si>
-  <si>
-    <t>Placeholder1</t>
-  </si>
-  <si>
-    <t>Placeholder2</t>
-  </si>
-  <si>
-    <t>Placeholder3</t>
-  </si>
-  <si>
-    <t>Placeholder4</t>
-  </si>
-  <si>
-    <t>Placeholder5</t>
-  </si>
-  <si>
-    <t>Placeholder6</t>
-  </si>
-  <si>
-    <t>Placeholder7</t>
-  </si>
-  <si>
-    <t>Placeholder8</t>
-  </si>
-  <si>
-    <t>Placeholder9</t>
-  </si>
-  <si>
-    <t>Placeholder10</t>
-  </si>
-  <si>
-    <t>Placeholder11</t>
-  </si>
-  <si>
-    <t>PostalMax</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>PhoneMax</t>
-  </si>
-  <si>
-    <t>DataValue1</t>
-  </si>
-  <si>
-    <t>DataValue2</t>
-  </si>
-  <si>
-    <t>MaxLengthSize</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Tabel1</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Address Line1</t>
-  </si>
-  <si>
-    <t>Address Line2</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Business Unit</t>
-  </si>
-  <si>
-    <t>Delivery Method</t>
-  </si>
-  <si>
-    <t>Market sector</t>
-  </si>
-  <si>
-    <t>Project tag</t>
-  </si>
-  <si>
-    <t>Template1</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>2GB</t>
-  </si>
-  <si>
-    <t>Template2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>3GB</t>
-  </si>
-  <si>
     <t>Company 1</t>
   </si>
   <si>
@@ -234,9 +105,6 @@
     <t>DELIVERYDESCRIPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation Testing </t>
-  </si>
-  <si>
     <t>FROMTIMEHH</t>
   </si>
   <si>
@@ -244,6 +112,12 @@
   </si>
   <si>
     <t>hemanthpa123@yopmail.com</t>
+  </si>
+  <si>
+    <t>Delivery Automation Testing</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -253,12 +127,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,57 +244,60 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -783,7 +667,7 @@
     <col min="11" max="11" width="21.77734375" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
     <col min="15" max="15" width="30.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
@@ -811,34 +695,34 @@
         <v>11</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="9"/>
@@ -858,27 +742,27 @@
       <c r="AC1" s="11"/>
       <c r="AD1" s="11"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" ht="28.8">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8">
         <v>3</v>
@@ -887,10 +771,10 @@
         <v>996</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="L2" s="8">
         <v>9</v>
@@ -915,27 +799,47 @@
       <c r="AC2" s="12"/>
       <c r="AD2" s="11"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" ht="28.8">
       <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="8">
+        <v>9</v>
+      </c>
+      <c r="M3" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="9"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -955,13 +859,13 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="2"/>
@@ -1006,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1041,165 +945,70 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="5">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="5">
-        <v>12</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="5">
-        <v>10</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1213,44 +1022,26 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="5">
-        <v>12</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="5">
-        <v>10</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1264,27 +1055,13 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="5">
-        <v>13</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="5">
-        <v>11</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/excel/TestDataSheet.xlsx
+++ b/src/test/resources/excel/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optisolbusinessindia-my.sharepoint.com/personal/hemanthkumar_b_optisolbusiness_com/Documents/AutomationWorkplace/folloAutomation/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB65C34-BD7A-4EFA-84DE-BA96E194C7E5}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C56C39-C7A9-472E-8FED-75C923026287}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseManager" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>TESTCASENAME</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>TabName</t>
-  </si>
-  <si>
     <t>Company 1</t>
   </si>
   <si>
@@ -118,6 +115,27 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>CRANEEQUIPMENTNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Crane </t>
+  </si>
+  <si>
+    <t>CRANEEQUIPMENTValue</t>
+  </si>
+  <si>
+    <t>PICKINGFROM</t>
+  </si>
+  <si>
+    <t>PICKINGTO</t>
+  </si>
+  <si>
+    <t>Gate 1</t>
+  </si>
+  <si>
+    <t>Gate 2</t>
   </si>
 </sst>
 </file>
@@ -127,12 +145,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +234,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,61 +275,107 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,11 +728,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -667,233 +742,250 @@
     <col min="11" max="11" width="21.77734375" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" customWidth="1"/>
-    <col min="25" max="25" width="17.88671875" customWidth="1"/>
-    <col min="26" max="26" width="16.44140625" customWidth="1"/>
-    <col min="27" max="27" width="19.5546875" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" customWidth="1"/>
-    <col min="29" max="29" width="18.109375" customWidth="1"/>
-    <col min="30" max="30" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
+    <col min="28" max="28" width="19.5546875" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" customWidth="1"/>
+    <col min="30" max="30" width="18.109375" customWidth="1"/>
+    <col min="31" max="31" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" spans="1:31" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-    </row>
-    <row r="2" spans="1:30" ht="28.8">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>996</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8">
-        <v>3</v>
-      </c>
-      <c r="I2" s="8">
-        <v>996</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5">
         <v>9</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="5">
         <v>5</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="11"/>
-    </row>
-    <row r="3" spans="1:30" ht="28.8">
-      <c r="A3" s="9" t="s">
+      <c r="N2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="8"/>
+    </row>
+    <row r="3" spans="1:31" ht="28.8">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="8">
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5">
         <v>9</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>5</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="11"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5">
+        <v>6</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="8"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="11"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -910,22 +1002,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
     <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="18" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="13" width="16.109375" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" customWidth="1"/>
+    <col min="16" max="18" width="16.109375" customWidth="1"/>
     <col min="19" max="19" width="13.44140625" customWidth="1"/>
     <col min="20" max="20" width="14.88671875" customWidth="1"/>
     <col min="21" max="21" width="14.6640625" customWidth="1"/>
@@ -934,143 +1031,201 @@
     <col min="24" max="24" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="23" customFormat="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+    </row>
+    <row r="2" spans="1:25" s="23" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="29">
+        <v>3</v>
+      </c>
+      <c r="I2" s="29">
+        <v>996</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="29">
+        <v>9</v>
+      </c>
+      <c r="M2" s="29">
+        <v>5</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="29">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="P2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+    </row>
+    <row r="3" spans="1:25" s="23" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+    </row>
+    <row r="4" spans="1:25" s="23" customFormat="1">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" tooltip="mailto:Test@123" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{C9D49011-8BBC-4CF0-ADA5-0B4E077239B8}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{09FC86E0-C135-4C8C-8971-EEE4ED7A320B}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{0DBF312D-07B1-4055-93E4-3461F4A2773D}"/>
+    <hyperlink ref="C3" r:id="rId1" tooltip="mailto:Test@123" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{C9D49011-8BBC-4CF0-ADA5-0B4E077239B8}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{09FC86E0-C135-4C8C-8971-EEE4ED7A320B}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{0DBF312D-07B1-4055-93E4-3461F4A2773D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/TestDataSheet.xlsx
+++ b/src/test/resources/excel/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optisolbusinessindia-my.sharepoint.com/personal/hemanthkumar_b_optisolbusiness_com/Documents/AutomationWorkplace/folloAutomation/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C56C39-C7A9-472E-8FED-75C923026287}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_5A09FC46E5A36E7075273E6E9324D3AA1BB54326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17763A4B-4DC7-4101-AB9F-DC374285DE31}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1236" yWindow="864" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseManager" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>TESTCASENAME</t>
   </si>
@@ -136,6 +136,48 @@
   </si>
   <si>
     <t>Gate 2</t>
+  </si>
+  <si>
+    <t>Crane Automation Testing</t>
+  </si>
+  <si>
+    <t>CONCRETEDESCRIPTION</t>
+  </si>
+  <si>
+    <t>ADDITIONALDETAILS</t>
+  </si>
+  <si>
+    <t>MIXDESIGN</t>
+  </si>
+  <si>
+    <t>ORDERNUMBER</t>
+  </si>
+  <si>
+    <t>SLUM</t>
+  </si>
+  <si>
+    <t>TRUCKSPACING</t>
+  </si>
+  <si>
+    <t>QUANTITYORDER</t>
+  </si>
+  <si>
+    <t>PRIMERFORPUMP</t>
+  </si>
+  <si>
+    <t>Concrete Booking Automation</t>
+  </si>
+  <si>
+    <t>Additional Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mix Design </t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>20 min</t>
   </si>
 </sst>
 </file>
@@ -145,12 +187,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,6 +295,12 @@
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,107 +337,116 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -728,9 +799,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -948,53 +1021,13 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="8"/>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{73CA23CC-3B8F-4810-8E7F-E447CA088110}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{C6002A08-A006-489E-AACC-4CF0E1E99BF2}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{169B8113-2692-4F81-852E-18527256489F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1002,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1022,13 +1055,15 @@
     <col min="12" max="13" width="16.109375" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
     <col min="15" max="15" width="20.21875" customWidth="1"/>
-    <col min="16" max="18" width="16.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" customWidth="1"/>
+    <col min="16" max="17" width="16.109375" customWidth="1"/>
+    <col min="18" max="18" width="26.21875" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" customWidth="1"/>
     <col min="21" max="21" width="14.6640625" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.88671875" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1">
@@ -1083,18 +1118,34 @@
       <c r="Q1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
+      <c r="R1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>28</v>
@@ -1124,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L2" s="29">
         <v>9</v>
@@ -1144,18 +1195,34 @@
       <c r="Q2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
+      <c r="R2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="22">
+        <v>123</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" s="23" customFormat="1">
+    <row r="3" spans="1:25" s="23" customFormat="1" ht="28.8">
       <c r="A3" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>28</v>
@@ -1163,32 +1230,76 @@
       <c r="C3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
+      <c r="D3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="29">
+        <v>3</v>
+      </c>
+      <c r="I3" s="29">
+        <v>996</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="29">
+        <v>9</v>
+      </c>
+      <c r="M3" s="29">
+        <v>5</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="29">
+        <v>6</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="22">
+        <v>123</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:25" s="23" customFormat="1">
       <c r="A4" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>28</v>
@@ -1220,6 +1331,7 @@
       <c r="Y4" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" tooltip="mailto:Test@123" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
@@ -1228,5 +1340,6 @@
     <hyperlink ref="B4" r:id="rId5" xr:uid="{0DBF312D-07B1-4055-93E4-3461F4A2773D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>